--- a/flows/AAAU_fund_flow_data.xlsx
+++ b/flows/AAAU_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1402"/>
+  <dimension ref="A1:B1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14455,6 +14455,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>-6.027</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>10.035</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>-7.3955</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
